--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny-my.sharepoint.com/personal/hyeok_lee64_qmail_cuny_edu/Documents/GitHub/project_4/chicago_mh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42CF360D-0AE9-4C91-846B-0AAD01C33814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:40009_{42CF360D-0AE9-4C91-846B-0AAD01C33814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A5C4A3-CB3E-46E6-9B06-4D608FCE4F85}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="11220" yWindow="648" windowWidth="11916" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="149">
   <si>
     <t>crimes</t>
   </si>
@@ -458,12 +458,21 @@
   </si>
   <si>
     <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>(zip or else)</t>
+  </si>
+  <si>
+    <t>(none)</t>
+  </si>
+  <si>
+    <t>(year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,15 +1012,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1023,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1378,2279 +1387,2673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE4" sqref="BE4:BE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="6" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="6"/>
-    <col min="6" max="6" width="14.109375" style="6" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" style="6"/>
-    <col min="11" max="11" width="14.109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="6"/>
-    <col min="13" max="13" width="11" style="6" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" style="6"/>
-    <col min="16" max="16" width="13.109375" style="6" customWidth="1"/>
-    <col min="17" max="45" width="8.88671875" style="6"/>
-    <col min="46" max="46" width="16.21875" style="6" customWidth="1"/>
-    <col min="47" max="50" width="8.88671875" style="6"/>
-    <col min="51" max="51" width="17.21875" style="6" customWidth="1"/>
-    <col min="52" max="55" width="8.88671875" style="6"/>
-    <col min="56" max="56" width="16.6640625" style="6" customWidth="1"/>
-    <col min="57" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="14.6640625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="14.109375" style="3" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="14.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="11" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="3"/>
+    <col min="16" max="16" width="20.5546875" style="3" customWidth="1"/>
+    <col min="17" max="45" width="8.88671875" style="3"/>
+    <col min="46" max="46" width="21" style="3" customWidth="1"/>
+    <col min="47" max="50" width="8.88671875" style="3"/>
+    <col min="51" max="51" width="17.21875" style="3" customWidth="1"/>
+    <col min="52" max="55" width="8.88671875" style="3"/>
+    <col min="56" max="56" width="16.6640625" style="3" customWidth="1"/>
+    <col min="57" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="1" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-      <c r="U1" s="1" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="3"/>
-      <c r="Z1" s="1" t="s">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="7"/>
+      <c r="Z1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="3"/>
-      <c r="AE1" s="1" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="7"/>
+      <c r="AE1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="3"/>
-      <c r="AJ1" s="1" t="s">
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="7"/>
+      <c r="AJ1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="3"/>
-      <c r="AO1" s="1" t="s">
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="7"/>
+      <c r="AO1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="3"/>
-      <c r="AT1" s="1" t="s">
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="7"/>
+      <c r="AT1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="3"/>
-      <c r="AY1" s="1" t="s">
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="7"/>
+      <c r="AY1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="3"/>
-      <c r="BD1" s="1" t="s">
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="7"/>
+      <c r="BD1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="3"/>
-      <c r="BI1" s="1" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="7"/>
+      <c r="BI1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="3"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="7"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="s">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5" t="s">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5" t="s">
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5" t="s">
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AT2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AU2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5" t="s">
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AY2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="5" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5" t="s">
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BD2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BE2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5" t="s">
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BI2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5" t="s">
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="I3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="N3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="U3" s="7" t="s">
+      <c r="S3" s="4"/>
+      <c r="U3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="V3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Z3" s="7" t="s">
+      <c r="X3" s="4"/>
+      <c r="Z3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AE3" s="7" t="s">
+      <c r="AC3" s="4"/>
+      <c r="AE3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AF3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="7"/>
-      <c r="AJ3" s="7" t="s">
+      <c r="AH3" s="4"/>
+      <c r="AJ3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="7"/>
-      <c r="AO3" s="7" t="s">
+      <c r="AM3" s="4"/>
+      <c r="AO3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AP3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AT3" s="7" t="s">
+      <c r="AR3" s="4"/>
+      <c r="AT3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AU3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AU3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="7"/>
-      <c r="AY3" s="7" t="s">
+      <c r="AW3" s="4"/>
+      <c r="AY3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA3" s="7" t="s">
+      <c r="AZ3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="7"/>
-      <c r="BD3" s="7" t="s">
+      <c r="BB3" s="4"/>
+      <c r="BD3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BE3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BE3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BG3" s="7"/>
-      <c r="BI3" s="7" t="s">
+      <c r="BG3" s="4"/>
+      <c r="BI3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BJ3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BJ3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BL3" s="7"/>
+      <c r="BL3" s="4"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="N4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="U4" s="7" t="s">
+      <c r="S4" s="4"/>
+      <c r="U4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Z4" s="7" t="s">
+      <c r="V4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AE4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AJ4" s="7" t="s">
+      <c r="AF4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AJ4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AO4" s="7" t="s">
+      <c r="AK4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AO4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AT4" s="7" t="s">
+      <c r="AP4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AT4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AY4" s="7" t="s">
+      <c r="AU4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AY4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BD4" s="7" t="s">
+      <c r="AZ4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BD4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BI4" s="7" t="s">
+      <c r="BE4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BI4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="U5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Z5" s="7" t="s">
+      <c r="V5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Z5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AE5" s="7" t="s">
+      <c r="AA5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AE5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AJ5" s="7" t="s">
+      <c r="AF5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AO5" s="7" t="s">
+      <c r="AK5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AT5" s="7" t="s">
+      <c r="AP5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AY5" s="7" t="s">
+      <c r="AU5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AY5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BD5" s="7" t="s">
+      <c r="AZ5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BD5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BI5" s="7" t="s">
+      <c r="BE5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BI5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="P6" s="7" t="s">
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="U6" s="7" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="U6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Z6" s="7" t="s">
+      <c r="V6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AE6" s="7" t="s">
+      <c r="AA6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AE6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AJ6" s="7" t="s">
+      <c r="AF6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AJ6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AO6" s="7" t="s">
+      <c r="AK6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AO6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AT6" s="7" t="s">
+      <c r="AP6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AT6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AY6" s="7" t="s">
+      <c r="AU6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AY6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BD6" s="7" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BD6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BI6" s="7" t="s">
+      <c r="BE6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BI6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BJ6" s="7"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="P7" s="7" t="s">
+      <c r="L7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="7" t="s">
+      <c r="Q7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="U7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Z7" s="7" t="s">
+      <c r="V7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AE7" s="7" t="s">
+      <c r="AA7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AE7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AJ7" s="7" t="s">
+      <c r="AF7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AJ7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AO7" s="7" t="s">
+      <c r="AK7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AO7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AT7" s="7" t="s">
+      <c r="AP7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AT7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AY7" s="7" t="s">
+      <c r="AU7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AY7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BD7" s="7" t="s">
+      <c r="AZ7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BD7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BI7" s="7" t="s">
+      <c r="BE7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BI7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="K8" s="7" t="s">
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="P8" s="7" t="s">
+      <c r="L8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="U8" s="7" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="U8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Z8" s="7" t="s">
+      <c r="V8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AE8" s="7" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AE8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AJ8" s="7" t="s">
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AO8" s="7" t="s">
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AT8" s="7" t="s">
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AY8" s="7" t="s">
+      <c r="AU8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AY8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-      <c r="BD8" s="7" t="s">
+      <c r="AZ8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BD8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="7"/>
-      <c r="BI8" s="7" t="s">
+      <c r="BE8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BI8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BJ8" s="7"/>
-      <c r="BK8" s="7"/>
-      <c r="BL8" s="7"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="7" t="s">
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="P9" s="7" t="s">
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="U9" s="7" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="U9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Z9" s="7" t="s">
+      <c r="V9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AE9" s="7" t="s">
+      <c r="AA9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AE9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AJ9" s="7" t="s">
+      <c r="AF9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AO9" s="7" t="s">
+      <c r="AK9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AT9" s="7" t="s">
+      <c r="AP9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AY9" s="7" t="s">
+      <c r="AU9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AY9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BD9" s="7" t="s">
+      <c r="AZ9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BD9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BI9" s="7" t="s">
+      <c r="BE9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BI9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="P10" s="7" t="s">
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="U10" s="7" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="U10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Z10" s="7" t="s">
+      <c r="V10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AE10" s="7" t="s">
+      <c r="AA10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AE10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AJ10" s="7" t="s">
+      <c r="AF10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AJ10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AO10" s="7" t="s">
+      <c r="AK10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AO10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AT10" s="7" t="s">
+      <c r="AP10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AT10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AY10" s="7" t="s">
+      <c r="AU10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AY10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BD10" s="7" t="s">
+      <c r="AZ10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BD10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BI10" s="7" t="s">
+      <c r="BE10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BI10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="K11" s="7" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="U11" s="7" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="U11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="AT11" s="7" t="s">
+      <c r="V11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="AT11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AY11" s="7" t="s">
+      <c r="AU11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AY11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BD11" s="7" t="s">
+      <c r="AZ11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BD11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
+      <c r="BE11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="K12" s="7" t="s">
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="P12" s="7" t="s">
+      <c r="L12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="U12" s="7" t="s">
+      <c r="Q12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="U12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="AT12" s="7" t="s">
+      <c r="V12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="AT12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AY12" s="7" t="s">
+      <c r="AU12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AY12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BD12" s="7" t="s">
+      <c r="AZ12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BD12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
+      <c r="BE12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="K13" s="7" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="P13" s="7" t="s">
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="P13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="U13" s="7" t="s">
+      <c r="Q13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="U13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="AT13" s="7" t="s">
+      <c r="V13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="AT13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AY13" s="7" t="s">
+      <c r="AU13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AY13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BD13" s="7" t="s">
+      <c r="AZ13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BD13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
+      <c r="BE13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="P14" s="7" t="s">
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="P14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="U14" s="7" t="s">
+      <c r="Q14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="U14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="AT14" s="7" t="s">
+      <c r="V14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="AT14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AY14" s="7" t="s">
+      <c r="AU14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AY14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BD14" s="7" t="s">
+      <c r="AZ14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BD14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
+      <c r="BE14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="K15" s="7" t="s">
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="P15" s="7" t="s">
+      <c r="L15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="P15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="U15" s="7" t="s">
+      <c r="Q15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="U15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="AT15" s="7" t="s">
+      <c r="V15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="AT15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AY15" s="7" t="s">
+      <c r="AU15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AY15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BD15" s="7" t="s">
+      <c r="AZ15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BD15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
+      <c r="BE15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="K16" s="7" t="s">
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="P16" s="7" t="s">
+      <c r="L16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="P16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="U16" s="7" t="s">
+      <c r="Q16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="U16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="AT16" s="7" t="s">
+      <c r="V16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="AT16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
-      <c r="AY16" s="7" t="s">
+      <c r="AU16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AY16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
-      <c r="BD16" s="7" t="s">
+      <c r="AZ16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BD16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
+      <c r="BE16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="P17" s="7" t="s">
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="P17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="AT17" s="7" t="s">
+      <c r="Q17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="AT17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AY17" s="7" t="s">
+      <c r="AU17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AY17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BD17" s="7" t="s">
+      <c r="AZ17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BD17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
+      <c r="BE17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="P18" s="7" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="P18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="AT18" s="7" t="s">
+      <c r="Q18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="AT18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
-      <c r="AY18" s="7" t="s">
+      <c r="AU18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AY18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BD18" s="7" t="s">
+      <c r="AZ18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BD18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
+      <c r="BE18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="P19" s="7" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="P19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="AT19" s="7" t="s">
+      <c r="Q19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="AT19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AY19" s="7" t="s">
+      <c r="AU19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AY19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BD19" s="7" t="s">
+      <c r="AZ19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BD19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
+      <c r="BE19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="P20" s="7" t="s">
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="P20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="AT20" s="7" t="s">
+      <c r="Q20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="AT20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
-      <c r="AW20" s="7"/>
-      <c r="AY20" s="7" t="s">
+      <c r="AU20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AY20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
-      <c r="BD20" s="7" t="s">
+      <c r="AZ20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BD20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
+      <c r="BE20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="P21" s="7" t="s">
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="P21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="AT21" s="7" t="s">
+      <c r="Q21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="AT21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AY21" s="7" t="s">
+      <c r="AU21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AY21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BD21" s="7" t="s">
+      <c r="AZ21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BD21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
+      <c r="BE21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="P22" s="7" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="P22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="AT22" s="7" t="s">
+      <c r="Q22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="AT22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
-      <c r="AY22" s="7" t="s">
+      <c r="AU22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AY22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
-      <c r="BD22" s="7" t="s">
+      <c r="AZ22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BD22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
+      <c r="BE22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="P23" s="7" t="s">
+      <c r="G23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="P23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="AT23" s="7" t="s">
+      <c r="Q23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="AT23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AY23" s="7" t="s">
+      <c r="AU23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AY23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BD23" s="7" t="s">
+      <c r="AZ23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BD23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
+      <c r="BE23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="P24" s="7" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="P24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="AT24" s="7" t="s">
+      <c r="Q24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="AT24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
-      <c r="AY24" s="7" t="s">
+      <c r="AU24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AY24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BD24" s="7" t="s">
+      <c r="AZ24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BD24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
+      <c r="BE24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="P25" s="7" t="s">
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="P25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="AT25" s="7" t="s">
+      <c r="Q25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="AT25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
-      <c r="AY25" s="7" t="s">
+      <c r="AU25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AY25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AZ25" s="7"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
-      <c r="BD25" s="7" t="s">
+      <c r="AZ25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BD25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="7"/>
+      <c r="BE25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="P26" s="7" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="P26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="AT26" s="7" t="s">
+      <c r="Q26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="AT26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AY26" s="7" t="s">
+      <c r="AU26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AY26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BD26" s="7" t="s">
+      <c r="AZ26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BD26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
+      <c r="BE26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="P27" s="7" t="s">
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="P27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="AT27" s="7" t="s">
+      <c r="Q27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="AT27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="7"/>
-      <c r="AW27" s="7"/>
-      <c r="AY27" s="7" t="s">
+      <c r="AU27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AY27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AZ27" s="7"/>
-      <c r="BA27" s="7"/>
-      <c r="BB27" s="7"/>
-      <c r="BD27" s="7" t="s">
+      <c r="AZ27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BD27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BE27" s="7"/>
-      <c r="BF27" s="7"/>
-      <c r="BG27" s="7"/>
+      <c r="BE27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="P28" s="7" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="P28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="AT28" s="7" t="s">
+      <c r="Q28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="AT28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
-      <c r="AW28" s="7"/>
-      <c r="AY28" s="7" t="s">
+      <c r="AU28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AY28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AZ28" s="7"/>
-      <c r="BA28" s="7"/>
-      <c r="BB28" s="7"/>
-      <c r="BD28" s="7" t="s">
+      <c r="AZ28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BD28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BE28" s="7"/>
-      <c r="BF28" s="7"/>
-      <c r="BG28" s="7"/>
+      <c r="BE28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="P29" s="7" t="s">
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="P29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="AT29" s="7" t="s">
+      <c r="Q29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="AT29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="7"/>
-      <c r="AW29" s="7"/>
-      <c r="AY29" s="7" t="s">
+      <c r="AU29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AY29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AZ29" s="7"/>
-      <c r="BA29" s="7"/>
-      <c r="BB29" s="7"/>
-      <c r="BD29" s="7" t="s">
+      <c r="AZ29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BD29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BE29" s="7"/>
-      <c r="BF29" s="7"/>
-      <c r="BG29" s="7"/>
+      <c r="BE29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="P30" s="7" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="P30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="AT30" s="7" t="s">
+      <c r="Q30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="AT30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
-      <c r="AW30" s="7"/>
-      <c r="AY30" s="7" t="s">
+      <c r="AU30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AY30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BD30" s="7" t="s">
+      <c r="AZ30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BD30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BE30" s="7"/>
-      <c r="BF30" s="7"/>
-      <c r="BG30" s="7"/>
+      <c r="BE30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="F31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="P31" s="7" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="P31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="AT31" s="7" t="s">
+      <c r="Q31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="AT31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="7"/>
-      <c r="AY31" s="7" t="s">
+      <c r="AU31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AY31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
-      <c r="BD31" s="7" t="s">
+      <c r="AZ31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BD31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
+      <c r="BE31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="P32" s="7" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="P32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="AT32" s="7" t="s">
+      <c r="Q32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="AT32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="7"/>
-      <c r="AY32" s="7" t="s">
+      <c r="AU32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AY32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BD32" s="7" t="s">
+      <c r="AZ32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BD32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
+      <c r="BE32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
     </row>
     <row r="33" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="P33" s="7" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="P33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="AT33" s="7" t="s">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="AT33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AU33" s="7"/>
-      <c r="AV33" s="7"/>
-      <c r="AW33" s="7"/>
-      <c r="AY33" s="7" t="s">
+      <c r="AU33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AY33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AZ33" s="7"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
-      <c r="BD33" s="7" t="s">
+      <c r="AZ33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BD33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BE33" s="7"/>
-      <c r="BF33" s="7"/>
-      <c r="BG33" s="7"/>
+      <c r="BE33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
     </row>
     <row r="34" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="P34" s="7" t="s">
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="P34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="AT34" s="7" t="s">
+      <c r="Q34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="AT34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AU34" s="7"/>
-      <c r="AV34" s="7"/>
-      <c r="AW34" s="7"/>
-      <c r="AY34" s="7" t="s">
+      <c r="AU34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AY34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AZ34" s="7"/>
-      <c r="BA34" s="7"/>
-      <c r="BB34" s="7"/>
-      <c r="BD34" s="7" t="s">
+      <c r="AZ34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BD34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BE34" s="7"/>
-      <c r="BF34" s="7"/>
-      <c r="BG34" s="7"/>
+      <c r="BE34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
     </row>
     <row r="35" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="P35" s="7" t="s">
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="P35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="AT35" s="7" t="s">
+      <c r="Q35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="AT35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="7"/>
-      <c r="AW35" s="7"/>
-      <c r="AY35" s="7" t="s">
+      <c r="AU35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AY35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
-      <c r="BD35" s="7" t="s">
+      <c r="AZ35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BD35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
+      <c r="BE35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
     </row>
     <row r="36" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="P36" s="7" t="s">
+      <c r="G36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="P36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="AY36" s="7" t="s">
+      <c r="Q36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="AT36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AZ36" s="7"/>
-      <c r="BA36" s="7"/>
-      <c r="BB36" s="7"/>
-      <c r="BD36" s="7" t="s">
+      <c r="AU36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AY36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BE36" s="7"/>
-      <c r="BF36" s="7"/>
-      <c r="BG36" s="7"/>
+      <c r="AZ36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BD36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
     </row>
     <row r="37" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="G44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="G46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="G47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="6:59" x14ac:dyDescent="0.3">
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="BI1:BL1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
@@ -3658,12 +4061,6 @@
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny-my.sharepoint.com/personal/hyeok_lee64_qmail_cuny_edu/Documents/GitHub/project_4/chicago_mh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:40009_{42CF360D-0AE9-4C91-846B-0AAD01C33814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A5C4A3-CB3E-46E6-9B06-4D608FCE4F85}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:40009_{42CF360D-0AE9-4C91-846B-0AAD01C33814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B58CCC3-A2FE-4103-BC67-156D5CAC6F58}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="648" windowWidth="11916" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="149">
   <si>
     <t>crimes</t>
   </si>
@@ -1091,6 +1091,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1390,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE4" sqref="BE4:BE36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,13 +1409,13 @@
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="15" width="8.88671875" style="3"/>
     <col min="16" max="16" width="20.5546875" style="3" customWidth="1"/>
-    <col min="17" max="45" width="8.88671875" style="3"/>
-    <col min="46" max="46" width="21" style="3" customWidth="1"/>
-    <col min="47" max="50" width="8.88671875" style="3"/>
-    <col min="51" max="51" width="17.21875" style="3" customWidth="1"/>
-    <col min="52" max="55" width="8.88671875" style="3"/>
-    <col min="56" max="56" width="16.6640625" style="3" customWidth="1"/>
-    <col min="57" max="16384" width="8.88671875" style="3"/>
+    <col min="17" max="20" width="8.88671875" style="3"/>
+    <col min="21" max="21" width="21" style="3" customWidth="1"/>
+    <col min="22" max="25" width="8.88671875" style="3"/>
+    <col min="26" max="26" width="17.21875" style="3" customWidth="1"/>
+    <col min="27" max="30" width="8.88671875" style="3"/>
+    <col min="31" max="31" width="16.6640625" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1440,49 +1444,49 @@
       <c r="R1" s="6"/>
       <c r="S1" s="7"/>
       <c r="U1" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="7"/>
       <c r="Z1" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="7"/>
       <c r="AJ1" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
       <c r="AM1" s="7"/>
       <c r="AO1" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AP1" s="6"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7"/>
       <c r="AT1" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AU1" s="6"/>
       <c r="AV1" s="6"/>
       <c r="AW1" s="7"/>
       <c r="AY1" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="6"/>
       <c r="BB1" s="7"/>
       <c r="BD1" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="BE1" s="6"/>
       <c r="BF1" s="6"/>
@@ -1806,26 +1810,26 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AE4" s="4" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
       <c r="AJ4" s="4" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
@@ -1838,33 +1842,35 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AT4" s="4" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AY4" s="4" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BD4" s="4" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
       <c r="BI4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="BJ4" s="4"/>
+      <c r="BJ4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="BK4" s="4"/>
       <c r="BL4" s="4"/>
     </row>
@@ -1910,33 +1916,29 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AE5" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="AH5" s="4"/>
       <c r="AJ5" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="AM5" s="4"/>
       <c r="AO5" s="4" t="s">
         <v>132</v>
       </c>
@@ -1944,39 +1946,47 @@
         <v>7</v>
       </c>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="4" t="s">
+      <c r="AR5" s="4"/>
+      <c r="AT5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AT5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
       <c r="AY5" s="4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
+      <c r="BB5" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="BD5" s="4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
+      <c r="BG5" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="BI5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
+      <c r="BL5" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2020,26 +2030,26 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AE6" s="4" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AJ6" s="4" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
@@ -2052,33 +2062,35 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AT6" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BD6" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BI6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BJ6" s="4"/>
+      <c r="BJ6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BK6" s="4"/>
       <c r="BL6" s="4"/>
     </row>
@@ -2124,7 +2136,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>7</v>
@@ -2132,7 +2144,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AE7" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>7</v>
@@ -2140,7 +2152,7 @@
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AJ7" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>7</v>
@@ -2156,7 +2168,7 @@
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AT7" s="4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>7</v>
@@ -2164,7 +2176,7 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="AZ7" s="4" t="s">
         <v>7</v>
@@ -2172,7 +2184,7 @@
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BD7" s="4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="BE7" s="4" t="s">
         <v>7</v>
@@ -2182,7 +2194,9 @@
       <c r="BI7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BJ7" s="4"/>
+      <c r="BJ7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BK7" s="4"/>
       <c r="BL7" s="4"/>
     </row>
@@ -2220,7 +2234,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>7</v>
@@ -2228,7 +2242,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Z8" s="4" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>7</v>
@@ -2236,59 +2250,61 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AE8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="AH8" s="4"/>
       <c r="AJ8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK8" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="AM8" s="4"/>
       <c r="AO8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AP8" s="4"/>
+      <c r="AP8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="4" t="s">
+      <c r="AR8" s="4"/>
+      <c r="AT8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AT8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
       <c r="AY8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AZ8" s="4"/>
       <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
+      <c r="BB8" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="BD8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="BE8" s="4"/>
       <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
+      <c r="BG8" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="BI8" s="4" t="s">
         <v>135</v>
       </c>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
+      <c r="BL8" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -2324,81 +2340,85 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="U9" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AE9" s="4" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH9" s="4"/>
       <c r="AJ9" s="4" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="AM9" s="4"/>
       <c r="AO9" s="4" t="s">
         <v>136</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="4" t="s">
+      <c r="AR9" s="4"/>
+      <c r="AT9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AT9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
       <c r="AY9" s="4" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
+      <c r="BB9" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="BD9" s="4" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="BE9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
+      <c r="BG9" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="BI9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="BJ9" s="4"/>
+      <c r="BJ9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
+      <c r="BL9" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -2434,7 +2454,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>9</v>
@@ -2442,26 +2462,26 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AE10" s="4" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AJ10" s="4" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
@@ -2474,33 +2494,35 @@
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AT10" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="AZ10" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
       <c r="BD10" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="BE10" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="BF10" s="4"/>
       <c r="BG10" s="4"/>
       <c r="BI10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="BJ10" s="4"/>
+      <c r="BJ10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="BK10" s="4"/>
       <c r="BL10" s="4"/>
     </row>
@@ -2538,37 +2560,37 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="AT11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AU11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AY11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AE11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AZ11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BD11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
+      <c r="AF11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AJ11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -2604,37 +2626,37 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="AT12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AU12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AY12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AE12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AZ12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BD12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
+      <c r="AF12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AJ12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -2670,37 +2692,37 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="U13" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="AT13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AU13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AY13" s="4" t="s">
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AE13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AZ13" s="4" t="s">
+      <c r="AF13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BD13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AJ13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2736,37 +2758,37 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="U14" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="AT14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AU14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AY14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AE14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AZ14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BD14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
+      <c r="AF14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AJ14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -2802,37 +2824,37 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="U15" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="AT15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AU15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AY15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AE15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AZ15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BD15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
+      <c r="AF15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AJ15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -2868,39 +2890,39 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="U16" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="AT16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AU16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AY16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AE16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AZ16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BD16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AJ16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2925,32 +2947,32 @@
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="AT17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AU17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AY17" s="4" t="s">
+      <c r="V17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Z17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AZ17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BD17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AE17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BE17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -2975,32 +2997,32 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="AT18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AU18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AY18" s="4" t="s">
+      <c r="V18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Z18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AZ18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BD18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AE18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BE18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -3025,32 +3047,32 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="AT19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AU19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AY19" s="4" t="s">
+      <c r="V19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Z19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AZ19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BD19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AE19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BE19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -3075,32 +3097,32 @@
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="AT20" s="4" t="s">
+      <c r="U20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AU20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AY20" s="4" t="s">
+      <c r="V20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Z20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AZ20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BD20" s="4" t="s">
+      <c r="AA20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AE20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BE20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3125,32 +3147,32 @@
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="AT21" s="4" t="s">
+      <c r="U21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AU21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AY21" s="4" t="s">
+      <c r="V21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Z21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AZ21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BD21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AE21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BE21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -3175,32 +3197,32 @@
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="AT22" s="4" t="s">
+      <c r="U22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AU22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AY22" s="4" t="s">
+      <c r="V22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Z22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AZ22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BD22" s="4" t="s">
+      <c r="AA22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AE22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BE22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -3225,32 +3247,32 @@
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="AT23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AU23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AY23" s="4" t="s">
+      <c r="V23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Z23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AZ23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BD23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AE23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BE23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -3275,32 +3297,32 @@
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="AT24" s="4" t="s">
+      <c r="U24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AU24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AY24" s="4" t="s">
+      <c r="V24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Z24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AZ24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BD24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AE24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BE24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -3325,32 +3347,32 @@
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="AT25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AU25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AY25" s="4" t="s">
+      <c r="V25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Z25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AZ25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BD25" s="4" t="s">
+      <c r="AA25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AE25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BE25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -3375,32 +3397,32 @@
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="AT26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AU26" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AY26" s="4" t="s">
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Z26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AZ26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BD26" s="4" t="s">
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AE26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BE26" s="4" t="s">
+      <c r="AF26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-    </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
@@ -3425,32 +3447,32 @@
       </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="AT27" s="4" t="s">
+      <c r="U27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AU27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AY27" s="4" t="s">
+      <c r="V27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Z27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AZ27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BD27" s="4" t="s">
+      <c r="AA27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AE27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BE27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-    </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -3475,32 +3497,32 @@
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="AT28" s="4" t="s">
+      <c r="U28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AU28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AY28" s="4" t="s">
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Z28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AZ28" s="4" t="s">
+      <c r="AA28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BD28" s="4" t="s">
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AE28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BE28" s="4" t="s">
+      <c r="AF28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="4"/>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
@@ -3525,32 +3547,32 @@
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="AT29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AU29" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AY29" s="4" t="s">
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Z29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AZ29" s="4" t="s">
+      <c r="AA29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
-      <c r="BD29" s="4" t="s">
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AE29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BE29" s="4" t="s">
+      <c r="AF29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
@@ -3575,32 +3597,32 @@
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="AT30" s="4" t="s">
+      <c r="U30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AU30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AY30" s="4" t="s">
+      <c r="V30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Z30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AZ30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA30" s="4"/>
-      <c r="BB30" s="4"/>
-      <c r="BD30" s="4" t="s">
+      <c r="AA30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AE30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BE30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF30" s="4"/>
-      <c r="BG30" s="4"/>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AF30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
@@ -3625,32 +3647,32 @@
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="AT31" s="4" t="s">
+      <c r="U31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AU31" s="4" t="s">
+      <c r="V31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AY31" s="4" t="s">
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Z31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AZ31" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA31" s="4"/>
-      <c r="BB31" s="4"/>
-      <c r="BD31" s="4" t="s">
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AE31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BE31" s="4" t="s">
+      <c r="AF31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF31" s="4"/>
-      <c r="BG31" s="4"/>
-    </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -3675,32 +3697,32 @@
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="AT32" s="4" t="s">
+      <c r="U32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AU32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AY32" s="4" t="s">
+      <c r="V32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Z32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AZ32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA32" s="4"/>
-      <c r="BB32" s="4"/>
-      <c r="BD32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AE32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BE32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF32" s="4"/>
-      <c r="BG32" s="4"/>
-    </row>
-    <row r="33" spans="6:59" x14ac:dyDescent="0.3">
+      <c r="AF32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+    </row>
+    <row r="33" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F33" s="4" t="s">
         <v>71</v>
       </c>
@@ -3715,32 +3737,32 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="AT33" s="4" t="s">
+      <c r="U33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AU33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AY33" s="4" t="s">
+      <c r="V33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Z33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AZ33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA33" s="4"/>
-      <c r="BB33" s="4"/>
-      <c r="BD33" s="4" t="s">
+      <c r="AA33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AE33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BE33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF33" s="4"/>
-      <c r="BG33" s="4"/>
-    </row>
-    <row r="34" spans="6:59" x14ac:dyDescent="0.3">
+      <c r="AF33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+    </row>
+    <row r="34" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F34" s="4" t="s">
         <v>52</v>
       </c>
@@ -3757,32 +3779,32 @@
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="AT34" s="4" t="s">
+      <c r="U34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AU34" s="4" t="s">
+      <c r="V34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AY34" s="4" t="s">
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Z34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AZ34" s="4" t="s">
+      <c r="AA34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA34" s="4"/>
-      <c r="BB34" s="4"/>
-      <c r="BD34" s="4" t="s">
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AE34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BE34" s="4" t="s">
+      <c r="AF34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
-    </row>
-    <row r="35" spans="6:59" x14ac:dyDescent="0.3">
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+    </row>
+    <row r="35" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F35" s="4" t="s">
         <v>64</v>
       </c>
@@ -3799,32 +3821,32 @@
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="AT35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AU35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AY35" s="4" t="s">
+      <c r="V35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Z35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AZ35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BD35" s="4" t="s">
+      <c r="AA35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AE35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BE35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-    </row>
-    <row r="36" spans="6:59" x14ac:dyDescent="0.3">
+      <c r="AF35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+    </row>
+    <row r="36" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F36" s="4" t="s">
         <v>58</v>
       </c>
@@ -3841,32 +3863,32 @@
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="AT36" s="4" t="s">
+      <c r="U36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AU36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AY36" s="4" t="s">
+      <c r="V36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Z36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AZ36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BD36" s="4" t="s">
+      <c r="AA36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AE36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BE36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-    </row>
-    <row r="37" spans="6:59" x14ac:dyDescent="0.3">
+      <c r="AF36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+    </row>
+    <row r="37" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F37" s="4" t="s">
         <v>56</v>
       </c>
@@ -3876,7 +3898,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F38" s="4" t="s">
         <v>60</v>
       </c>
@@ -3886,7 +3908,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F39" s="4" t="s">
         <v>62</v>
       </c>
@@ -3896,7 +3918,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
@@ -3906,7 +3928,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
@@ -3916,7 +3938,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
@@ -3926,7 +3948,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F43" s="4" t="s">
         <v>75</v>
       </c>
@@ -3936,7 +3958,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F44" s="4" t="s">
         <v>76</v>
       </c>
@@ -3946,7 +3968,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3956,7 +3978,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
@@ -3966,7 +3988,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F47" s="4" t="s">
         <v>79</v>
       </c>
@@ -3976,7 +3998,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="6:59" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:34" x14ac:dyDescent="0.3">
       <c r="F48" s="4" t="s">
         <v>80</v>
       </c>
@@ -4048,19 +4070,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny-my.sharepoint.com/personal/hyeok_lee64_qmail_cuny_edu/Documents/GitHub/project_4/chicago_mh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:40009_{42CF360D-0AE9-4C91-846B-0AAD01C33814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B58CCC3-A2FE-4103-BC67-156D5CAC6F58}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:40009_{42CF360D-0AE9-4C91-846B-0AAD01C33814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EE72E7-FE37-43CA-A119-5068FF37E9C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="149">
   <si>
     <t>crimes</t>
   </si>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1:BL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,14 +1408,16 @@
     <col min="12" max="12" width="8.88671875" style="3"/>
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="15" width="8.88671875" style="3"/>
-    <col min="16" max="16" width="20.5546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="3" customWidth="1"/>
     <col min="17" max="20" width="8.88671875" style="3"/>
-    <col min="21" max="21" width="21" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" style="3" customWidth="1"/>
     <col min="22" max="25" width="8.88671875" style="3"/>
-    <col min="26" max="26" width="17.21875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="21" style="3" customWidth="1"/>
     <col min="27" max="30" width="8.88671875" style="3"/>
-    <col min="31" max="31" width="16.6640625" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="3"/>
+    <col min="31" max="31" width="17.21875" style="3" customWidth="1"/>
+    <col min="32" max="35" width="8.88671875" style="3"/>
+    <col min="36" max="36" width="16.6640625" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1438,31 +1440,31 @@
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
       <c r="P1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="7"/>
       <c r="U1" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="7"/>
       <c r="Z1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
       <c r="AE1" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="7"/>
       <c r="AJ1" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
@@ -1797,9 +1799,7 @@
       <c r="Q4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="U4" s="4" t="s">
         <v>87</v>
@@ -1807,7 +1807,9 @@
       <c r="V4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="4"/>
+      <c r="W4" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="X4" s="4"/>
       <c r="Z4" s="4" t="s">
         <v>87</v>
@@ -2226,7 +2228,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>7</v>
@@ -2258,7 +2260,7 @@
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AJ8" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AK8" s="4" t="s">
         <v>7</v>
@@ -2276,7 +2278,9 @@
       <c r="AT8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AU8" s="4"/>
+      <c r="AU8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4" t="s">
         <v>147</v>
@@ -2284,7 +2288,9 @@
       <c r="AY8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4" t="s">
         <v>147</v>
@@ -2292,7 +2298,9 @@
       <c r="BD8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BE8" s="4"/>
+      <c r="BE8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BF8" s="4"/>
       <c r="BG8" s="4" t="s">
         <v>147</v>
@@ -2300,7 +2308,9 @@
       <c r="BI8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BJ8" s="4"/>
+      <c r="BJ8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4" t="s">
         <v>147</v>
@@ -2332,10 +2342,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2364,10 +2374,10 @@
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
       <c r="AJ9" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
@@ -2446,7 +2456,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>9</v>
@@ -2478,7 +2488,7 @@
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AJ10" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>9</v>
@@ -2552,7 +2562,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>7</v>
@@ -2584,7 +2594,7 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AJ11" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AK11" s="4" t="s">
         <v>7</v>
@@ -2618,10 +2628,10 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2650,10 +2660,10 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AJ12" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
@@ -2684,10 +2694,10 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2716,10 +2726,10 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AJ13" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -2750,7 +2760,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>7</v>
@@ -2782,7 +2792,7 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AJ14" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AK14" s="4" t="s">
         <v>7</v>
@@ -2816,10 +2826,10 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2848,10 +2858,10 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AJ15" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -2882,10 +2892,10 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2914,15 +2924,15 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AJ16" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2939,14 +2949,6 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
       <c r="U17" s="4" t="s">
         <v>110</v>
       </c>
@@ -2971,8 +2973,16 @@
       </c>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -2989,14 +2999,6 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="P18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
       <c r="U18" s="4" t="s">
         <v>111</v>
       </c>
@@ -3021,8 +3023,16 @@
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -3039,14 +3049,6 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="P19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
       <c r="U19" s="4" t="s">
         <v>112</v>
       </c>
@@ -3071,8 +3073,16 @@
       </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -3089,14 +3099,6 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="P20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
       <c r="U20" s="4" t="s">
         <v>113</v>
       </c>
@@ -3121,8 +3123,16 @@
       </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3139,14 +3149,6 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="P21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
       <c r="U21" s="4" t="s">
         <v>114</v>
       </c>
@@ -3171,8 +3173,16 @@
       </c>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -3189,14 +3199,6 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="P22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
       <c r="U22" s="4" t="s">
         <v>115</v>
       </c>
@@ -3221,8 +3223,16 @@
       </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -3239,14 +3249,6 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="P23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
       <c r="U23" s="4" t="s">
         <v>116</v>
       </c>
@@ -3271,8 +3273,16 @@
       </c>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -3289,14 +3299,6 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="P24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
       <c r="U24" s="4" t="s">
         <v>96</v>
       </c>
@@ -3321,8 +3323,16 @@
       </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -3339,14 +3349,6 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="P25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
       <c r="U25" s="4" t="s">
         <v>97</v>
       </c>
@@ -3371,8 +3373,16 @@
       </c>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -3389,14 +3399,6 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="P26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
       <c r="U26" s="4" t="s">
         <v>117</v>
       </c>
@@ -3421,8 +3423,16 @@
       </c>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
@@ -3439,14 +3449,6 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
       <c r="U27" s="4" t="s">
         <v>118</v>
       </c>
@@ -3471,8 +3473,16 @@
       </c>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -3489,14 +3499,6 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="P28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
       <c r="U28" s="4" t="s">
         <v>119</v>
       </c>
@@ -3521,8 +3523,16 @@
       </c>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
@@ -3539,14 +3549,6 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="P29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
       <c r="U29" s="4" t="s">
         <v>120</v>
       </c>
@@ -3571,8 +3573,16 @@
       </c>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
@@ -3589,19 +3599,11 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="P30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
       <c r="U30" s="4" t="s">
         <v>121</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -3621,8 +3623,16 @@
       </c>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
@@ -3639,14 +3649,6 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="P31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
       <c r="U31" s="4" t="s">
         <v>122</v>
       </c>
@@ -3671,8 +3673,16 @@
       </c>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -3689,14 +3699,6 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="P32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
       <c r="U32" s="4" t="s">
         <v>123</v>
       </c>
@@ -3721,8 +3723,16 @@
       </c>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="6:34" x14ac:dyDescent="0.3">
+      <c r="AJ32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+    </row>
+    <row r="33" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F33" s="4" t="s">
         <v>71</v>
       </c>
@@ -3731,18 +3741,10 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="P33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
       <c r="U33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Z33" s="4" t="s">
@@ -3761,8 +3763,16 @@
       </c>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
-    </row>
-    <row r="34" spans="6:34" x14ac:dyDescent="0.3">
+      <c r="AJ33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F34" s="4" t="s">
         <v>52</v>
       </c>
@@ -3771,14 +3781,6 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="P34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
       <c r="U34" s="4" t="s">
         <v>125</v>
       </c>
@@ -3803,8 +3805,16 @@
       </c>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="6:34" x14ac:dyDescent="0.3">
+      <c r="AJ34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+    </row>
+    <row r="35" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F35" s="4" t="s">
         <v>64</v>
       </c>
@@ -3813,14 +3823,6 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="P35" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
       <c r="U35" s="4" t="s">
         <v>126</v>
       </c>
@@ -3845,8 +3847,16 @@
       </c>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-    </row>
-    <row r="36" spans="6:34" x14ac:dyDescent="0.3">
+      <c r="AJ35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+    </row>
+    <row r="36" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F36" s="4" t="s">
         <v>58</v>
       </c>
@@ -3855,14 +3865,6 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="P36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
       <c r="U36" s="4" t="s">
         <v>127</v>
       </c>
@@ -3887,8 +3889,16 @@
       </c>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
-    </row>
-    <row r="37" spans="6:34" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+    </row>
+    <row r="37" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F37" s="4" t="s">
         <v>56</v>
       </c>
@@ -3898,7 +3908,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F38" s="4" t="s">
         <v>60</v>
       </c>
@@ -3908,7 +3918,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F39" s="4" t="s">
         <v>62</v>
       </c>
@@ -3918,7 +3928,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
@@ -3928,7 +3938,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
@@ -3938,7 +3948,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
@@ -3948,7 +3958,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F43" s="4" t="s">
         <v>75</v>
       </c>
@@ -3958,7 +3968,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F44" s="4" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +3978,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3978,7 +3988,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
@@ -3988,7 +3998,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F47" s="4" t="s">
         <v>79</v>
       </c>
@@ -3998,7 +4008,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="6:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:39" x14ac:dyDescent="0.3">
       <c r="F48" s="4" t="s">
         <v>80</v>
       </c>
@@ -4070,19 +4080,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="BI1:BL1"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="U1:X1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AJ1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
